--- a/acervo separado/Acervo_Objeto_comemorativo.xlsx
+++ b/acervo separado/Acervo_Objeto_comemorativo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FAF1694-423D-4D55-B5A0-9A1A70E9D220}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E739F69-F96E-40BF-96F5-372E89643C92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$5</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$5</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,12 +108,6 @@
     <t>1926</t>
   </si>
   <si>
-    <t>Moldagem/gesso</t>
-  </si>
-  <si>
-    <t>Gesso patinado</t>
-  </si>
-  <si>
     <t>GIRARDET, Augusto Giorgio (1855-1955)</t>
   </si>
   <si>
@@ -146,9 +147,6 @@
     <t>ass.cid</t>
   </si>
   <si>
-    <t>Gesso</t>
-  </si>
-  <si>
     <t>3606</t>
   </si>
   <si>
@@ -216,6 +214,15 @@
   </si>
   <si>
     <t>66cm</t>
+  </si>
+  <si>
+    <t>mattec_113</t>
+  </si>
+  <si>
+    <t>mattec_197</t>
+  </si>
+  <si>
+    <t>mattec_111</t>
   </si>
 </sst>
 </file>
@@ -611,7 +618,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,16 +696,16 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
         <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -706,25 +713,25 @@
         <v>1855</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -733,25 +740,25 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -759,25 +766,25 @@
         <v>3606</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -786,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -798,10 +805,10 @@
         <v>21</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -809,25 +816,25 @@
         <v>3561</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -836,22 +843,22 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -859,25 +866,25 @@
         <v>3564</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -886,25 +893,25 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
